--- a/daten/population_lu.xlsx
+++ b/daten/population_lu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DEE60FB-853C-AD4E-AFCC-A34D7C66D0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA5804-C160-8842-BA42-50A116E1FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="2060" windowWidth="27840" windowHeight="16740" activeTab="1" xr2:uid="{35EC89EA-080D-7D48-8A95-5F8986258692}"/>
+    <workbookView xWindow="5760" yWindow="2060" windowWidth="27840" windowHeight="16740" xr2:uid="{35EC89EA-080D-7D48-8A95-5F8986258692}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanton" sheetId="1" r:id="rId1"/>
@@ -69,325 +69,325 @@
     <t>Canton Grevenmacher</t>
   </si>
   <si>
+    <t>Canton Capellen</t>
+  </si>
+  <si>
+    <t>Canton Luxembourg</t>
+  </si>
+  <si>
+    <t>Canton Mersch</t>
+  </si>
+  <si>
+    <t>Clervaux</t>
+  </si>
+  <si>
+    <t>Parc Hosingen</t>
+  </si>
+  <si>
+    <t>Troisvierges</t>
+  </si>
+  <si>
+    <t>Weiswampach</t>
+  </si>
+  <si>
+    <t>Wincrange</t>
+  </si>
+  <si>
+    <t>Bettendorf</t>
+  </si>
+  <si>
+    <t>Bourscheid</t>
+  </si>
+  <si>
+    <t>Diekirch</t>
+  </si>
+  <si>
+    <t>Erpeldange-sur-Sûre</t>
+  </si>
+  <si>
+    <t>Ettelbruck</t>
+  </si>
+  <si>
+    <t>Feulen</t>
+  </si>
+  <si>
+    <t>Mertzig</t>
+  </si>
+  <si>
+    <t>Reisdorf</t>
+  </si>
+  <si>
+    <t>Schieren</t>
+  </si>
+  <si>
+    <t>Vallée de l'Ernz</t>
+  </si>
+  <si>
+    <t>Beckerich</t>
+  </si>
+  <si>
+    <t>Ell</t>
+  </si>
+  <si>
+    <t>Grosbous</t>
+  </si>
+  <si>
+    <t>Préizerdaul</t>
+  </si>
+  <si>
+    <t>Rambrouch</t>
+  </si>
+  <si>
+    <t>Redange-sur-Attert</t>
+  </si>
+  <si>
+    <t>Saeul</t>
+  </si>
+  <si>
+    <t>Useldange</t>
+  </si>
+  <si>
+    <t>Vichten</t>
+  </si>
+  <si>
+    <t>Wahl</t>
+  </si>
+  <si>
+    <t>Putscheid</t>
+  </si>
+  <si>
+    <t>Tandel</t>
+  </si>
+  <si>
+    <t>Vianden</t>
+  </si>
+  <si>
+    <t>Boulaide</t>
+  </si>
+  <si>
+    <t>Esch-sur-Sûre</t>
+  </si>
+  <si>
+    <t>Goesdorf</t>
+  </si>
+  <si>
+    <t>Kiischpelt</t>
+  </si>
+  <si>
+    <t>Lac de la Haute-Sûre</t>
+  </si>
+  <si>
+    <t>Wiltz</t>
+  </si>
+  <si>
+    <t>Winseler</t>
+  </si>
+  <si>
+    <t>Beaufort</t>
+  </si>
+  <si>
+    <t>Bech</t>
+  </si>
+  <si>
+    <t>Berdorf</t>
+  </si>
+  <si>
+    <t>Consdorf</t>
+  </si>
+  <si>
+    <t>Echternach</t>
+  </si>
+  <si>
+    <t>Rosport - Mompach</t>
+  </si>
+  <si>
+    <t>Waldbillig</t>
+  </si>
+  <si>
+    <t>Betzdorf</t>
+  </si>
+  <si>
+    <t>Biwer</t>
+  </si>
+  <si>
+    <t>Flaxweiler</t>
+  </si>
+  <si>
+    <t>Grevenmacher</t>
+  </si>
+  <si>
+    <t>Junglinster</t>
+  </si>
+  <si>
+    <t>Manternach</t>
+  </si>
+  <si>
+    <t>Mertert</t>
+  </si>
+  <si>
+    <t>Wormeldange</t>
+  </si>
+  <si>
+    <t>Bous</t>
+  </si>
+  <si>
+    <t>Dalheim</t>
+  </si>
+  <si>
+    <t>Lenningen</t>
+  </si>
+  <si>
+    <t>Mondorf-les-Bains</t>
+  </si>
+  <si>
+    <t>Remich</t>
+  </si>
+  <si>
+    <t>Schengen</t>
+  </si>
+  <si>
+    <t>Stadtbredimus</t>
+  </si>
+  <si>
+    <t>Waldbredimus</t>
+  </si>
+  <si>
+    <t>Dippach</t>
+  </si>
+  <si>
+    <t>Garnich</t>
+  </si>
+  <si>
+    <t>Habscht</t>
+  </si>
+  <si>
+    <t>Käerjeng</t>
+  </si>
+  <si>
+    <t>Kehlen</t>
+  </si>
+  <si>
+    <t>Koerich</t>
+  </si>
+  <si>
+    <t>Kopstal</t>
+  </si>
+  <si>
+    <t>Mamer</t>
+  </si>
+  <si>
+    <t>Steinfort</t>
+  </si>
+  <si>
+    <t>Bettembourg</t>
+  </si>
+  <si>
+    <t>Differdange</t>
+  </si>
+  <si>
+    <t>Dudelange</t>
+  </si>
+  <si>
+    <t>Esch-sur-Alzette</t>
+  </si>
+  <si>
+    <t>Frisange</t>
+  </si>
+  <si>
+    <t>Kayl</t>
+  </si>
+  <si>
+    <t>Leudelange</t>
+  </si>
+  <si>
+    <t>Mondercange</t>
+  </si>
+  <si>
+    <t>Pétange</t>
+  </si>
+  <si>
+    <t>Reckange-sur-Mess</t>
+  </si>
+  <si>
+    <t>Roeser</t>
+  </si>
+  <si>
+    <t>Rumelange</t>
+  </si>
+  <si>
+    <t>Sanem</t>
+  </si>
+  <si>
+    <t>Schifflange</t>
+  </si>
+  <si>
+    <t>Bertrange</t>
+  </si>
+  <si>
+    <t>Contern</t>
+  </si>
+  <si>
+    <t>Hesperange</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Niederanven</t>
+  </si>
+  <si>
+    <t>Sandweiler</t>
+  </si>
+  <si>
+    <t>Schuttrange</t>
+  </si>
+  <si>
+    <t>Steinsel</t>
+  </si>
+  <si>
+    <t>Strassen</t>
+  </si>
+  <si>
+    <t>Walferdange</t>
+  </si>
+  <si>
+    <t>Weiler-la-Tour</t>
+  </si>
+  <si>
+    <t>Bissen</t>
+  </si>
+  <si>
+    <t>Colmar-Berg</t>
+  </si>
+  <si>
+    <t>Fischbach</t>
+  </si>
+  <si>
+    <t>Heffingen</t>
+  </si>
+  <si>
+    <t>Helperknapp</t>
+  </si>
+  <si>
+    <t>Larochette</t>
+  </si>
+  <si>
+    <t>Lintgen</t>
+  </si>
+  <si>
+    <t>Lorentzweiler</t>
+  </si>
+  <si>
+    <t>Mersch</t>
+  </si>
+  <si>
+    <t>Nommern</t>
+  </si>
+  <si>
+    <t>Canton Esch-Alzette</t>
+  </si>
+  <si>
     <t>Canton Remich</t>
-  </si>
-  <si>
-    <t>Canton Capellen</t>
-  </si>
-  <si>
-    <t>Canton Esch</t>
-  </si>
-  <si>
-    <t>Canton Luxembourg</t>
-  </si>
-  <si>
-    <t>Canton Mersch</t>
-  </si>
-  <si>
-    <t>Clervaux</t>
-  </si>
-  <si>
-    <t>Parc Hosingen</t>
-  </si>
-  <si>
-    <t>Troisvierges</t>
-  </si>
-  <si>
-    <t>Weiswampach</t>
-  </si>
-  <si>
-    <t>Wincrange</t>
-  </si>
-  <si>
-    <t>Bettendorf</t>
-  </si>
-  <si>
-    <t>Bourscheid</t>
-  </si>
-  <si>
-    <t>Diekirch</t>
-  </si>
-  <si>
-    <t>Erpeldange-sur-Sûre</t>
-  </si>
-  <si>
-    <t>Ettelbruck</t>
-  </si>
-  <si>
-    <t>Feulen</t>
-  </si>
-  <si>
-    <t>Mertzig</t>
-  </si>
-  <si>
-    <t>Reisdorf</t>
-  </si>
-  <si>
-    <t>Schieren</t>
-  </si>
-  <si>
-    <t>Vallée de l'Ernz</t>
-  </si>
-  <si>
-    <t>Beckerich</t>
-  </si>
-  <si>
-    <t>Ell</t>
-  </si>
-  <si>
-    <t>Grosbous</t>
-  </si>
-  <si>
-    <t>Préizerdaul</t>
-  </si>
-  <si>
-    <t>Rambrouch</t>
-  </si>
-  <si>
-    <t>Redange-sur-Attert</t>
-  </si>
-  <si>
-    <t>Saeul</t>
-  </si>
-  <si>
-    <t>Useldange</t>
-  </si>
-  <si>
-    <t>Vichten</t>
-  </si>
-  <si>
-    <t>Wahl</t>
-  </si>
-  <si>
-    <t>Putscheid</t>
-  </si>
-  <si>
-    <t>Tandel</t>
-  </si>
-  <si>
-    <t>Vianden</t>
-  </si>
-  <si>
-    <t>Boulaide</t>
-  </si>
-  <si>
-    <t>Esch-sur-Sûre</t>
-  </si>
-  <si>
-    <t>Goesdorf</t>
-  </si>
-  <si>
-    <t>Kiischpelt</t>
-  </si>
-  <si>
-    <t>Lac de la Haute-Sûre</t>
-  </si>
-  <si>
-    <t>Wiltz</t>
-  </si>
-  <si>
-    <t>Winseler</t>
-  </si>
-  <si>
-    <t>Beaufort</t>
-  </si>
-  <si>
-    <t>Bech</t>
-  </si>
-  <si>
-    <t>Berdorf</t>
-  </si>
-  <si>
-    <t>Consdorf</t>
-  </si>
-  <si>
-    <t>Echternach</t>
-  </si>
-  <si>
-    <t>Rosport - Mompach</t>
-  </si>
-  <si>
-    <t>Waldbillig</t>
-  </si>
-  <si>
-    <t>Betzdorf</t>
-  </si>
-  <si>
-    <t>Biwer</t>
-  </si>
-  <si>
-    <t>Flaxweiler</t>
-  </si>
-  <si>
-    <t>Grevenmacher</t>
-  </si>
-  <si>
-    <t>Junglinster</t>
-  </si>
-  <si>
-    <t>Manternach</t>
-  </si>
-  <si>
-    <t>Mertert</t>
-  </si>
-  <si>
-    <t>Wormeldange</t>
-  </si>
-  <si>
-    <t>Bous</t>
-  </si>
-  <si>
-    <t>Dalheim</t>
-  </si>
-  <si>
-    <t>Lenningen</t>
-  </si>
-  <si>
-    <t>Mondorf-les-Bains</t>
-  </si>
-  <si>
-    <t>Remich</t>
-  </si>
-  <si>
-    <t>Schengen</t>
-  </si>
-  <si>
-    <t>Stadtbredimus</t>
-  </si>
-  <si>
-    <t>Waldbredimus</t>
-  </si>
-  <si>
-    <t>Dippach</t>
-  </si>
-  <si>
-    <t>Garnich</t>
-  </si>
-  <si>
-    <t>Habscht</t>
-  </si>
-  <si>
-    <t>Käerjeng</t>
-  </si>
-  <si>
-    <t>Kehlen</t>
-  </si>
-  <si>
-    <t>Koerich</t>
-  </si>
-  <si>
-    <t>Kopstal</t>
-  </si>
-  <si>
-    <t>Mamer</t>
-  </si>
-  <si>
-    <t>Steinfort</t>
-  </si>
-  <si>
-    <t>Bettembourg</t>
-  </si>
-  <si>
-    <t>Differdange</t>
-  </si>
-  <si>
-    <t>Dudelange</t>
-  </si>
-  <si>
-    <t>Esch-sur-Alzette</t>
-  </si>
-  <si>
-    <t>Frisange</t>
-  </si>
-  <si>
-    <t>Kayl</t>
-  </si>
-  <si>
-    <t>Leudelange</t>
-  </si>
-  <si>
-    <t>Mondercange</t>
-  </si>
-  <si>
-    <t>Pétange</t>
-  </si>
-  <si>
-    <t>Reckange-sur-Mess</t>
-  </si>
-  <si>
-    <t>Roeser</t>
-  </si>
-  <si>
-    <t>Rumelange</t>
-  </si>
-  <si>
-    <t>Sanem</t>
-  </si>
-  <si>
-    <t>Schifflange</t>
-  </si>
-  <si>
-    <t>Bertrange</t>
-  </si>
-  <si>
-    <t>Contern</t>
-  </si>
-  <si>
-    <t>Hesperange</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Niederanven</t>
-  </si>
-  <si>
-    <t>Sandweiler</t>
-  </si>
-  <si>
-    <t>Schuttrange</t>
-  </si>
-  <si>
-    <t>Steinsel</t>
-  </si>
-  <si>
-    <t>Strassen</t>
-  </si>
-  <si>
-    <t>Walferdange</t>
-  </si>
-  <si>
-    <t>Weiler-la-Tour</t>
-  </si>
-  <si>
-    <t>Bissen</t>
-  </si>
-  <si>
-    <t>Colmar-Berg</t>
-  </si>
-  <si>
-    <t>Fischbach</t>
-  </si>
-  <si>
-    <t>Heffingen</t>
-  </si>
-  <si>
-    <t>Helperknapp</t>
-  </si>
-  <si>
-    <t>Larochette</t>
-  </si>
-  <si>
-    <t>Lintgen</t>
-  </si>
-  <si>
-    <t>Lorentzweiler</t>
-  </si>
-  <si>
-    <t>Mersch</t>
-  </si>
-  <si>
-    <t>Nommern</t>
   </si>
 </sst>
 </file>
@@ -436,11 +436,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -757,16 +757,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98042370-B79C-4F42-97D1-A8181753D8C8}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,140 +781,136 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>20687</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>35150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>20874</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5594</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>19209</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>20280</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>32524</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
-        <v>24186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1">
+        <v>52828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1">
+        <v>189540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C10" s="2">
-        <v>52828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>204358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
-        <v>189540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
-        <v>204358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>35579</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -925,1145 +921,1145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092B4F39-B33B-8C41-B439-4D9192CDE81E}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>6021</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>4036</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>3513</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>2313</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>4804</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>3052</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>1678</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="3">
         <v>7295</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>2429</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="3">
         <v>9688</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>2366</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="3">
         <v>2370</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="3">
         <v>1353</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
+      <c r="B15" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="3">
         <v>2149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="3">
         <v>2770</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="3">
         <v>2866</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
       <c r="C18" s="3">
         <v>1582</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
+      <c r="B19" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="3">
         <v>1134</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="3">
         <v>1827</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
+      <c r="B21" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="3">
         <v>4836</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
+      <c r="B22" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="3">
         <v>3059</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
+      <c r="B23" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="3">
         <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>37</v>
+      <c r="B24" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>2075</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
+      <c r="B25" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="3">
         <v>1425</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
+      <c r="B26" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="3">
         <v>1087</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
+      <c r="B27" t="s">
+        <v>38</v>
       </c>
       <c r="C27" s="3">
         <v>1153</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
+      <c r="B28" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="3">
         <v>2238</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
+      <c r="B29" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="3">
         <v>2203</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
+      <c r="B30" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="3">
         <v>1499</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
+      <c r="B31" t="s">
+        <v>42</v>
       </c>
       <c r="C31" s="3">
         <v>3129</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
+      <c r="B32" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="3">
         <v>1664</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>46</v>
+      <c r="B33" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="3">
         <v>1260</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
+      <c r="B34" t="s">
+        <v>45</v>
       </c>
       <c r="C34" s="3">
         <v>2253</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
+      <c r="B35" t="s">
+        <v>46</v>
       </c>
       <c r="C35" s="3">
         <v>7949</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>49</v>
+      <c r="B36" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="3">
         <v>1455</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>50</v>
+      <c r="B37" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="3">
         <v>3053</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
+      <c r="B38" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="3">
         <v>1357</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>52</v>
+      <c r="B39" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="3">
         <v>2219</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
+      <c r="B40" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="3">
         <v>2117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>54</v>
+      <c r="B41" t="s">
+        <v>52</v>
       </c>
       <c r="C41" s="3">
         <v>5870</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>55</v>
+      <c r="B42" t="s">
+        <v>53</v>
       </c>
       <c r="C42" s="3">
         <v>3704</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>56</v>
+      <c r="B43" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="3">
         <v>1960</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>57</v>
+      <c r="B44" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="3">
         <v>4105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>58</v>
+      <c r="B45" t="s">
+        <v>56</v>
       </c>
       <c r="C45" s="3">
         <v>1926</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>59</v>
+      <c r="B46" t="s">
+        <v>57</v>
       </c>
       <c r="C46" s="3">
         <v>2193</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>60</v>
+      <c r="B47" t="s">
+        <v>58</v>
       </c>
       <c r="C47" s="3">
         <v>5092</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>61</v>
+      <c r="B48" t="s">
+        <v>59</v>
       </c>
       <c r="C48" s="3">
         <v>8622</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>62</v>
+      <c r="B49" t="s">
+        <v>60</v>
       </c>
       <c r="C49" s="3">
         <v>2298</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>63</v>
+      <c r="B50" t="s">
+        <v>61</v>
       </c>
       <c r="C50" s="3">
         <v>5117</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>64</v>
+      <c r="B51" t="s">
+        <v>62</v>
       </c>
       <c r="C51" s="3">
         <v>3171</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>65</v>
+      <c r="B52" t="s">
+        <v>63</v>
       </c>
       <c r="C52" s="3">
         <v>1752</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>66</v>
+      <c r="B53" t="s">
+        <v>64</v>
       </c>
       <c r="C53" s="3">
         <v>2408</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>67</v>
+      <c r="B54" t="s">
+        <v>65</v>
       </c>
       <c r="C54" s="3">
         <v>2070</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>68</v>
+      <c r="B55" t="s">
+        <v>66</v>
       </c>
       <c r="C55" s="3">
         <v>5424</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>69</v>
+      <c r="B56" t="s">
+        <v>67</v>
       </c>
       <c r="C56" s="3">
         <v>4015</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>70</v>
+      <c r="B57" t="s">
+        <v>68</v>
       </c>
       <c r="C57" s="3">
         <v>5196</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>71</v>
+      <c r="B58" t="s">
+        <v>69</v>
       </c>
       <c r="C58" s="3">
         <v>1984</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>72</v>
+      <c r="B59" t="s">
+        <v>70</v>
       </c>
       <c r="C59" s="3">
         <v>1337</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>73</v>
+      <c r="B60" t="s">
+        <v>71</v>
       </c>
       <c r="C60" s="3">
         <v>4635</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>74</v>
+      <c r="B61" t="s">
+        <v>72</v>
       </c>
       <c r="C61" s="3">
         <v>2289</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>75</v>
+      <c r="B62" t="s">
+        <v>73</v>
       </c>
       <c r="C62" s="3">
         <v>4992</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>76</v>
+      <c r="B63" t="s">
+        <v>74</v>
       </c>
       <c r="C63" s="3">
         <v>11015</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>77</v>
+      <c r="B64" t="s">
+        <v>75</v>
       </c>
       <c r="C64" s="3">
         <v>6391</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>78</v>
+      <c r="B65" t="s">
+        <v>76</v>
       </c>
       <c r="C65" s="3">
         <v>2706</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>79</v>
+      <c r="B66" t="s">
+        <v>77</v>
       </c>
       <c r="C66" s="3">
         <v>4286</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>80</v>
+      <c r="B67" t="s">
+        <v>78</v>
       </c>
       <c r="C67" s="3">
         <v>10643</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>81</v>
+      <c r="B68" t="s">
+        <v>79</v>
       </c>
       <c r="C68" s="3">
         <v>5871</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>82</v>
+      <c r="B69" t="s">
+        <v>80</v>
       </c>
       <c r="C69" s="3">
         <v>11422</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>83</v>
+      <c r="B70" t="s">
+        <v>81</v>
       </c>
       <c r="C70" s="3">
         <v>29536</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>84</v>
+      <c r="B71" t="s">
+        <v>82</v>
       </c>
       <c r="C71" s="3">
         <v>21953</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>85</v>
+      <c r="B72" t="s">
+        <v>83</v>
       </c>
       <c r="C72" s="3">
         <v>36625</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>86</v>
+      <c r="B73" t="s">
+        <v>84</v>
       </c>
       <c r="C73" s="3">
         <v>4912</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>87</v>
+      <c r="B74" t="s">
+        <v>85</v>
       </c>
       <c r="C74" s="3">
         <v>9865</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>88</v>
+      <c r="B75" t="s">
+        <v>86</v>
       </c>
       <c r="C75" s="3">
         <v>2766</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>89</v>
+      <c r="B76" t="s">
+        <v>87</v>
       </c>
       <c r="C76" s="3">
         <v>7119</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>90</v>
+      <c r="B77" t="s">
+        <v>88</v>
       </c>
       <c r="C77" s="3">
         <v>20563</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>91</v>
+      <c r="B78" t="s">
+        <v>89</v>
       </c>
       <c r="C78" s="3">
         <v>2734</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>92</v>
+      <c r="B79" t="s">
+        <v>90</v>
       </c>
       <c r="C79" s="3">
         <v>6657</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>93</v>
+      <c r="B80" t="s">
+        <v>91</v>
       </c>
       <c r="C80" s="3">
         <v>5692</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>94</v>
+      <c r="B81" t="s">
+        <v>92</v>
       </c>
       <c r="C81" s="3">
         <v>18333</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>95</v>
+      <c r="B82" t="s">
+        <v>93</v>
       </c>
       <c r="C82" s="3">
         <v>11363</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>96</v>
+      <c r="B83" t="s">
+        <v>94</v>
       </c>
       <c r="C83" s="3">
         <v>8668</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>97</v>
+      <c r="B84" t="s">
+        <v>95</v>
       </c>
       <c r="C84" s="3">
         <v>4374</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>98</v>
+      <c r="B85" t="s">
+        <v>96</v>
       </c>
       <c r="C85" s="3">
         <v>16433</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>99</v>
+      <c r="B86" t="s">
+        <v>97</v>
       </c>
       <c r="C86" s="3">
         <v>132780</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>100</v>
+      <c r="B87" t="s">
+        <v>98</v>
       </c>
       <c r="C87" s="3">
         <v>6660</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>101</v>
+      <c r="B88" t="s">
+        <v>99</v>
       </c>
       <c r="C88" s="3">
         <v>3751</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>102</v>
+      <c r="B89" t="s">
+        <v>100</v>
       </c>
       <c r="C89" s="3">
         <v>4387</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>103</v>
+      <c r="B90" t="s">
+        <v>101</v>
       </c>
       <c r="C90" s="3">
         <v>5539</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>104</v>
+      <c r="B91" t="s">
+        <v>102</v>
       </c>
       <c r="C91" s="3">
         <v>10538</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>105</v>
+      <c r="B92" t="s">
+        <v>103</v>
       </c>
       <c r="C92" s="3">
         <v>8730</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>106</v>
+      <c r="B93" t="s">
+        <v>104</v>
       </c>
       <c r="C93" s="3">
         <v>2498</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>107</v>
+      <c r="B94" t="s">
+        <v>105</v>
       </c>
       <c r="C94" s="3">
         <v>3450</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>108</v>
+      <c r="B95" t="s">
+        <v>106</v>
       </c>
       <c r="C95" s="3">
         <v>2336</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>109</v>
+      <c r="B96" t="s">
+        <v>107</v>
       </c>
       <c r="C96" s="3">
         <v>1308</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>110</v>
+      <c r="B97" t="s">
+        <v>108</v>
       </c>
       <c r="C97" s="3">
         <v>1549</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>111</v>
+      <c r="B98" t="s">
+        <v>109</v>
       </c>
       <c r="C98" s="3">
         <v>4941</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>112</v>
+      <c r="B99" t="s">
+        <v>110</v>
       </c>
       <c r="C99" s="3">
         <v>2208</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>113</v>
+      <c r="B100" t="s">
+        <v>111</v>
       </c>
       <c r="C100" s="3">
         <v>3436</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>114</v>
+      <c r="B101" t="s">
+        <v>112</v>
       </c>
       <c r="C101" s="3">
         <v>4521</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>115</v>
+      <c r="B102" t="s">
+        <v>113</v>
       </c>
       <c r="C102" s="3">
         <v>10393</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>116</v>
+      <c r="B103" t="s">
+        <v>114</v>
       </c>
       <c r="C103" s="3">
         <v>1437</v>

--- a/daten/population_lu.xlsx
+++ b/daten/population_lu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA5804-C160-8842-BA42-50A116E1FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB73691-059E-3845-B990-CEFCECC00602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2060" windowWidth="27840" windowHeight="16740" xr2:uid="{35EC89EA-080D-7D48-8A95-5F8986258692}"/>
+    <workbookView xWindow="5760" yWindow="2060" windowWidth="27840" windowHeight="16740" activeTab="1" xr2:uid="{35EC89EA-080D-7D48-8A95-5F8986258692}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanton" sheetId="1" r:id="rId1"/>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98042370-B79C-4F42-97D1-A8181753D8C8}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092B4F39-B33B-8C41-B439-4D9192CDE81E}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:XFD104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
